--- a/dane/duza brama/dane_duza.xlsx
+++ b/dane/duza brama/dane_duza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Gate-sensor\dane\duza brama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71ECA3C5-9E4F-4330-8FBB-95399B329C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3DBD7D-002A-4771-BD89-AFFD8F88A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{61B6227D-39FC-4ED5-A0A9-7944CABB1221}"/>
   </bookViews>
@@ -18,11 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">otwieranie!$A$1:$D$38</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">zamykanie!$A$1:$D$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">zamykanie!$B$1:$E$48</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">otwieranie!$F$1:$I$40</definedName>
-    <definedName name="ExternalData_2" localSheetId="1" hidden="1">zamykanie!$F$1:$I$46</definedName>
+    <definedName name="ExternalData_2" localSheetId="1" hidden="1">zamykanie!$G$1:$J$46</definedName>
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">otwieranie!$K$1:$N$38</definedName>
-    <definedName name="ExternalData_3" localSheetId="1" hidden="1">zamykanie!$K$1:$N$53</definedName>
+    <definedName name="ExternalData_3" localSheetId="1" hidden="1">zamykanie!$L$1:$O$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>sensortime</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time [ms]</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,14 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -176,12 +189,13 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="4" xr16:uid="{C77814E8-AE8E-46BD-8A15-F13E70692DA7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="6" unboundColumnsRight="1">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -189,12 +203,13 @@
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="5" xr16:uid="{FBDCB131-436C-4949-AE17-8CAA9400BC02}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="6" unboundColumnsRight="1">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -253,34 +268,40 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C22C0F51-3F1F-4292-87E0-E41D6AB68D64}" name="zam1" displayName="zam1" ref="A1:D48" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D48" xr:uid="{C22C0F51-3F1F-4292-87E0-E41D6AB68D64}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C22C0F51-3F1F-4292-87E0-E41D6AB68D64}" name="zam1" displayName="zam1" ref="B1:F48" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B1:F48" xr:uid="{C22C0F51-3F1F-4292-87E0-E41D6AB68D64}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D0C84B5D-A9B4-436E-AEC0-E956C654D4CA}" uniqueName="1" name="x" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{CE4AC979-1937-4E67-93FF-68623CD9378A}" uniqueName="2" name="y" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{144CF4FD-2FF7-4B05-B783-551170599A7A}" uniqueName="3" name="z" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{90DFFA80-AD2E-4E90-9946-40BB7A490ACA}" uniqueName="4" name="sensortime" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{22108617-64CC-421C-843A-312566B4B629}" uniqueName="5" name="time" queryTableFieldId="5" dataDxfId="0">
+      <calculatedColumnFormula>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F016C780-2EE9-4505-96C8-2D514C0E23F9}" name="zam2" displayName="zam2" ref="F1:I46" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="F1:I46" xr:uid="{F016C780-2EE9-4505-96C8-2D514C0E23F9}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F016C780-2EE9-4505-96C8-2D514C0E23F9}" name="zam2" displayName="zam2" ref="G1:K46" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="G1:K46" xr:uid="{F016C780-2EE9-4505-96C8-2D514C0E23F9}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{11AE7480-45BF-410F-9B0D-AE24F65B38F8}" uniqueName="1" name="x" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{D9F8D7F3-0BFA-4AF7-B754-2BF5B0383D04}" uniqueName="2" name="y" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{C6383349-B6EA-475A-B440-B331F01A43F9}" uniqueName="3" name="z" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{03B7D93B-FC0A-4763-B52B-6FFB567F1853}" uniqueName="4" name="sensortime" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{96DF07CC-4413-4FD9-B544-242401948105}" uniqueName="5" name="time [ms]" queryTableFieldId="5" dataDxfId="1">
+      <calculatedColumnFormula>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{838F4138-9363-4845-8B2E-09833BAA74A1}" name="zam3" displayName="zam3" ref="K1:N53" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="K1:N53" xr:uid="{838F4138-9363-4845-8B2E-09833BAA74A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{838F4138-9363-4845-8B2E-09833BAA74A1}" name="zam3" displayName="zam3" ref="L1:O53" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="L1:O53" xr:uid="{838F4138-9363-4845-8B2E-09833BAA74A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2253EA29-1A28-41A2-804D-774705F6A2C5}" uniqueName="1" name="x" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{7AF98FBB-E90F-4849-8EAA-763BEBE75D4F}" uniqueName="2" name="y" queryTableFieldId="2"/>
@@ -2105,1886 +2126,2451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383B7A89-A45B-43E5-97AB-316B9C97F6DD}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>1004</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-71</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>274936</v>
       </c>
       <c r="F2">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1012</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-94</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4083192</v>
       </c>
       <c r="K2">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1009</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>-120</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>11341304</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>960</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1007</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-67</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>299512</v>
       </c>
       <c r="F3">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>440</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1011</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-95</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4094456</v>
       </c>
       <c r="K3">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>440</v>
+      </c>
+      <c r="L3">
         <v>-1</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-103</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>11352568</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>1400</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>991</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-74</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>310776</v>
       </c>
       <c r="F4">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>880</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>996</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-76</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4105720</v>
       </c>
       <c r="K4">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>880</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1002</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-103</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>11363832</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>1840</v>
+      </c>
+      <c r="B5">
         <v>-1</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1007</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-72</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>322040</v>
       </c>
       <c r="F5">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>1800</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>999</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-71</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4129272</v>
       </c>
       <c r="K5">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>1880</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-113</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>11389432</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>2360</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1012</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-68</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>335352</v>
       </c>
       <c r="F6">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>2240</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1013</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-77</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4140536</v>
       </c>
       <c r="K6">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>2840</v>
+      </c>
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1007</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-99</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>11414008</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>2800</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>999</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-55</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>346616</v>
       </c>
       <c r="F7">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>2680</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>996</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-72</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4151800</v>
       </c>
       <c r="K7">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>3360</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1007</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-101</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>11427320</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>4280</v>
+      </c>
+      <c r="B8">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1002</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-67</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>384504</v>
       </c>
       <c r="F8">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>3160</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1012</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-71</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4164088</v>
       </c>
       <c r="K8">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>3800</v>
+      </c>
+      <c r="L8">
         <v>15</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1011</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-79</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>11438584</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>4760</v>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1008</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-82</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>396792</v>
       </c>
       <c r="F9">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>3760</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1008</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-95</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4179448</v>
       </c>
       <c r="K9">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>4360</v>
+      </c>
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1004</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-104</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>11452920</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>5240</v>
+      </c>
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>999</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-82</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>409080</v>
       </c>
       <c r="F10">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>4200</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-66</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4190712</v>
       </c>
       <c r="K10">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>4920</v>
+      </c>
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>991</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-98</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>11467256</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>5760</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>1004</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-51</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>422392</v>
       </c>
       <c r="F11">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>4920</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>993</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-85</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4209144</v>
       </c>
       <c r="K11">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>5360</v>
+      </c>
+      <c r="L11">
         <v>9</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>996</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-85</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>11478520</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>6200</v>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1001</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-57</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>433656</v>
       </c>
       <c r="F12">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>5400</v>
+      </c>
+      <c r="G12">
         <v>15</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1010</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-70</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4221432</v>
       </c>
       <c r="K12">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>5840</v>
+      </c>
+      <c r="L12">
         <v>8</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1005</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-82</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>11490808</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>6640</v>
+      </c>
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1011</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-46</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>444920</v>
       </c>
       <c r="F13">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>5840</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1004</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-67</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4232696</v>
       </c>
       <c r="K13">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>6520</v>
+      </c>
+      <c r="L13">
         <v>5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1001</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-81</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>11508216</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>7080</v>
+      </c>
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1003</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-66</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>456184</v>
       </c>
       <c r="F14">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>6640</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1002</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-70</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4253176</v>
       </c>
       <c r="K14">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>6960</v>
+      </c>
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1009</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-88</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>11519480</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>7640</v>
+      </c>
+      <c r="B15">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1003</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-59</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>470520</v>
       </c>
       <c r="F15">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>7080</v>
+      </c>
+      <c r="G15">
         <v>-1</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1003</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-70</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4264440</v>
       </c>
       <c r="K15">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>7400</v>
+      </c>
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>998</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-80</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>11530744</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>8160</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1010</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-56</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>483832</v>
       </c>
       <c r="F16">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>7520</v>
+      </c>
+      <c r="G16">
         <v>7</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1001</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-73</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4275704</v>
       </c>
       <c r="K16">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>7880</v>
+      </c>
+      <c r="L16">
         <v>-1</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1007</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-76</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>11543032</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>8600</v>
+      </c>
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-54</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>495096</v>
       </c>
       <c r="F17">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>7960</v>
+      </c>
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>990</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-78</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4286968</v>
       </c>
       <c r="K17">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>8320</v>
+      </c>
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1014</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-72</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>11554296</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>9040</v>
+      </c>
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1005</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-44</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>506360</v>
       </c>
       <c r="F18">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>8480</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1014</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-70</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4300280</v>
       </c>
       <c r="K18">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>8840</v>
+      </c>
+      <c r="L18">
         <v>2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1005</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-71</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>11567608</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>9560</v>
+      </c>
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1007</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-54</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>519672</v>
       </c>
       <c r="F19">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>8960</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1014</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-59</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4312568</v>
       </c>
       <c r="K19">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>9360</v>
+      </c>
+      <c r="L19">
         <v>5</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>995</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-73</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>11580920</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>10080</v>
+      </c>
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>1010</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-54</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>532984</v>
       </c>
       <c r="F20">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>9520</v>
+      </c>
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1004</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-67</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4326904</v>
       </c>
       <c r="K20">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>9800</v>
+      </c>
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1009</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-71</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>11592184</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>10560</v>
+      </c>
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>1001</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-50</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>545272</v>
       </c>
       <c r="F21">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>9960</v>
+      </c>
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1009</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-64</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4338168</v>
       </c>
       <c r="K21">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>10320</v>
+      </c>
+      <c r="L21">
         <v>-4</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1013</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-73</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>11605496</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>11000</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>1013</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-53</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>556536</v>
       </c>
       <c r="F22">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>10440</v>
+      </c>
+      <c r="G22">
         <v>13</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>998</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-60</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4350456</v>
       </c>
       <c r="K22">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>10800</v>
+      </c>
+      <c r="L22">
         <v>13</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1003</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-66</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>11617784</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>11440</v>
+      </c>
+      <c r="B23">
         <v>-4</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1023</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-53</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>567800</v>
       </c>
       <c r="F23">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>10880</v>
+      </c>
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>993</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-58</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4361720</v>
       </c>
       <c r="K23">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>11280</v>
+      </c>
+      <c r="L23">
         <v>5</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1014</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-67</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>11630072</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>12040</v>
+      </c>
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>1006</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-56</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>583160</v>
       </c>
       <c r="F24">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>11320</v>
+      </c>
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1015</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-57</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>4372984</v>
       </c>
       <c r="K24">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>11760</v>
+      </c>
+      <c r="L24">
         <v>8</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1007</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-68</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>11642360</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>12480</v>
+      </c>
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1011</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-49</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>594424</v>
       </c>
       <c r="F25">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>11760</v>
+      </c>
+      <c r="G25">
         <v>4</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-59</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4384248</v>
       </c>
       <c r="K25">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>12200</v>
+      </c>
+      <c r="L25">
         <v>3</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1010</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-64</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>11653624</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>12920</v>
+      </c>
+      <c r="B26">
         <v>3</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>997</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-43</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>605688</v>
       </c>
       <c r="F26">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>12480</v>
+      </c>
+      <c r="G26">
         <v>5</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>997</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-54</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4402680</v>
       </c>
       <c r="K26">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>12760</v>
+      </c>
+      <c r="L26">
         <v>2</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1020</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-67</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>11667960</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>13600</v>
+      </c>
+      <c r="B27">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>996</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-44</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>623096</v>
       </c>
       <c r="F27">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>12920</v>
+      </c>
+      <c r="G27">
         <v>-2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1011</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-51</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4413944</v>
       </c>
       <c r="K27">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>13240</v>
+      </c>
+      <c r="L27">
         <v>2</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1001</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-51</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>11680248</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>14160</v>
+      </c>
+      <c r="B28">
         <v>4</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>1014</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-45</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>637432</v>
       </c>
       <c r="F28">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>13640</v>
+      </c>
+      <c r="G28">
         <v>-7</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1014</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-53</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>4432376</v>
       </c>
       <c r="K28">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>13680</v>
+      </c>
+      <c r="L28">
         <v>5</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>991</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-50</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>11691512</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>14600</v>
+      </c>
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>1004</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-46</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>648696</v>
       </c>
       <c r="F29">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>14120</v>
+      </c>
+      <c r="G29">
         <v>1</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1008</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-44</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4444664</v>
       </c>
       <c r="K29">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>14120</v>
+      </c>
+      <c r="L29">
         <v>-1</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1005</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-45</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>11702776</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>15120</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>1019</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-42</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>662008</v>
       </c>
       <c r="F30">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>14560</v>
+      </c>
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-37</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>4455928</v>
       </c>
       <c r="K30">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>14560</v>
+      </c>
+      <c r="L30">
         <v>-1</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>992</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-39</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>11714040</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>15560</v>
+      </c>
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>999</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-46</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>673272</v>
       </c>
       <c r="F31">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>15000</v>
+      </c>
+      <c r="G31">
         <v>3</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-44</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>4467192</v>
       </c>
       <c r="K31">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>15000</v>
+      </c>
+      <c r="L31">
         <v>-3</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1003</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-39</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>11725304</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>16120</v>
+      </c>
+      <c r="B32">
         <v>-2</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>1002</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-36</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>687608</v>
       </c>
       <c r="F32">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>15560</v>
+      </c>
+      <c r="G32">
         <v>-4</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1001</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-34</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>4481528</v>
       </c>
       <c r="K32">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>15480</v>
+      </c>
+      <c r="L32">
         <v>2</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>993</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-37</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>11737592</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>16560</v>
+      </c>
+      <c r="B33">
         <v>9</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>1016</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-34</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>698872</v>
       </c>
       <c r="F33">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>16000</v>
+      </c>
+      <c r="G33">
         <v>4</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1016</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-33</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>4492792</v>
       </c>
       <c r="K33">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>15920</v>
+      </c>
+      <c r="L33">
         <v>-4</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1003</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-30</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>11748856</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>17080</v>
+      </c>
+      <c r="B34">
         <v>9</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>1010</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-30</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>712184</v>
       </c>
       <c r="F34">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>16560</v>
+      </c>
+      <c r="G34">
         <v>-7</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1019</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-26</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>4507128</v>
       </c>
       <c r="K34">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>16440</v>
+      </c>
+      <c r="L34">
         <v>-3</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>995</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-20</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>11762168</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>17640</v>
+      </c>
+      <c r="B35">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>1015</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-32</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>726520</v>
       </c>
       <c r="F35">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>17000</v>
+      </c>
+      <c r="G35">
         <v>-4</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-20</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>4518392</v>
       </c>
       <c r="K35">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>16880</v>
+      </c>
+      <c r="L35">
         <v>-3</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1008</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-12</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>11773432</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>18080</v>
+      </c>
+      <c r="B36">
         <v>0</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>1006</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-25</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>737784</v>
       </c>
       <c r="F36">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>17480</v>
+      </c>
+      <c r="G36">
         <v>3</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>996</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-5</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>4530680</v>
       </c>
       <c r="K36">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>17440</v>
+      </c>
+      <c r="L36">
         <v>-14</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>1001</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>11787768</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>18720</v>
+      </c>
+      <c r="B37">
         <v>3</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>1021</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-6</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>754168</v>
       </c>
       <c r="F37">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>17920</v>
+      </c>
+      <c r="G37">
         <v>-5</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1007</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>9</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>4541944</v>
       </c>
       <c r="K37">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>17880</v>
+      </c>
+      <c r="L37">
         <v>-5</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>1009</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>35</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>11799032</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>19160</v>
+      </c>
+      <c r="B38">
         <v>3</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>992</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-13</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>765432</v>
       </c>
       <c r="F38">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>18360</v>
+      </c>
+      <c r="G38">
         <v>-2</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1016</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>33</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>4553208</v>
       </c>
       <c r="K38">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>18520</v>
+      </c>
+      <c r="L38">
         <v>1</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1020</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>49</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>11815416</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>19600</v>
+      </c>
+      <c r="B39">
         <v>-7</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>1002</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-12</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>776696</v>
       </c>
       <c r="F39">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>18800</v>
+      </c>
+      <c r="G39">
         <v>-9</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1012</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>59</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>4564472</v>
       </c>
       <c r="K39">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>18960</v>
+      </c>
+      <c r="L39">
         <v>-7</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>1005</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>33</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>11826680</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>20040</v>
+      </c>
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>1008</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>16</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>787960</v>
       </c>
       <c r="F40">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>19240</v>
+      </c>
+      <c r="G40">
         <v>-8</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>991</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>80</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>4575736</v>
       </c>
       <c r="K40">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>19600</v>
+      </c>
+      <c r="L40">
         <v>-3</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>1009</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>3</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>11843064</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>20480</v>
+      </c>
+      <c r="B41">
         <v>-6</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>1016</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>21</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>799224</v>
       </c>
       <c r="F41">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>19680</v>
+      </c>
+      <c r="G41">
         <v>-11</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>1019</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>71</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>4587000</v>
       </c>
       <c r="K41">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>20040</v>
+      </c>
+      <c r="L41">
         <v>5</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>1017</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>-47</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>11854328</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>20920</v>
+      </c>
+      <c r="B42">
         <v>-3</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>993</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>18</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>810488</v>
       </c>
       <c r="F42">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>20120</v>
+      </c>
+      <c r="G42">
         <v>-6</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1009</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>66</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>4598264</v>
       </c>
       <c r="K42">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>20480</v>
+      </c>
+      <c r="L42">
         <v>7</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>1006</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>-48</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>11865592</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>21360</v>
+      </c>
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>1008</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>8</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>821752</v>
       </c>
       <c r="F43">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>20640</v>
+      </c>
+      <c r="G43">
         <v>-2</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1005</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>46</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>4611576</v>
       </c>
       <c r="K43">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>21000</v>
+      </c>
+      <c r="L43">
         <v>1</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>1005</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>-54</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>11878904</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>21800</v>
+      </c>
+      <c r="B44">
         <v>6</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>1015</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>-2</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>833016</v>
       </c>
       <c r="F44">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>21320</v>
+      </c>
+      <c r="G44">
         <v>2</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>1005</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>-24</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>4628984</v>
       </c>
       <c r="K44">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>23360</v>
+      </c>
+      <c r="L44">
         <v>-4</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>1007</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>-5</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>11939320</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>22320</v>
+      </c>
+      <c r="B45">
         <v>2</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>1010</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>3</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>846328</v>
       </c>
       <c r="F45">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>22200</v>
+      </c>
+      <c r="G45">
         <v>0</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>1006</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>4</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>4651512</v>
       </c>
       <c r="K45">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>26960</v>
+      </c>
+      <c r="L45">
         <v>-3</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>1007</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>6</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>12031480</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>23160</v>
+      </c>
+      <c r="B46">
         <v>4</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>1010</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>-4</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>867832</v>
       </c>
       <c r="F46">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>23080</v>
+      </c>
+      <c r="G46">
         <v>-1</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>1008</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>11</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>4674040</v>
       </c>
       <c r="K46">
+        <f>(zam3[[#This Row],[sensortime]]-11341304)*0.0390625</f>
+        <v>29640</v>
+      </c>
+      <c r="L46">
         <v>-2</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>1008</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>-14</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>12100088</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>32920</v>
+      </c>
+      <c r="B47">
         <v>4</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>1009</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>-14</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1117688</v>
       </c>
-      <c r="K47">
+      <c r="F47" t="e">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L47">
         <v>-2</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>1007</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>-11</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>12139000</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
+        <f>(zam1[[#This Row],[sensortime]]-274936)*0.0390625</f>
+        <v>40040</v>
+      </c>
+      <c r="B48">
         <v>2</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>1010</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>14</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1299960</v>
       </c>
-      <c r="K48">
+      <c r="F48" t="e">
+        <f>(zam2[[#This Row],[sensortime]]-4083192)*0.0390625</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L48">
         <v>0</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>1009</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>-23</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>12161528</v>
       </c>
     </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K49">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L49">
         <v>2</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>1007</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>-42</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>12247544</v>
       </c>
     </row>
-    <row r="50" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K50">
+    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L50">
         <v>0</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>1009</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>12276216</v>
       </c>
     </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K51">
+    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L51">
         <v>0</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>1008</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>2</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>12330488</v>
       </c>
     </row>
-    <row r="52" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K52">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L52">
         <v>-4</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>1008</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>37</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>12588536</v>
       </c>
     </row>
-    <row r="53" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K53">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L53">
         <v>2</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>1009</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>-18</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>12706296</v>
       </c>
     </row>
